--- a/data/long_razon/P24_9-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_9-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>124,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,56; 294,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 86,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-45,91; 61,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 68,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 103,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 50,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 106,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 66,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 41,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>197,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-22,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 618,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,66; 52,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 132,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 60,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,72; 76,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 65,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 151,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,17; 28,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 68,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>731,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>189,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>273,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -910,42 +1108,72 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-86,75; 250,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-63,94; 260,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 735,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,46; 110,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 122,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,89; 952,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,81; 82,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-46,64; 103,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>171,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>62,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,97 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,43; 339,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 30,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 63,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 56,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 56,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 34,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 108,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 32,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 34,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_9-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_9-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -678,509 +683,145 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
+      <c r="O7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1188,167 +829,143 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1356,14 +973,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_9-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_9-Urba-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>1.276283905458017</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1291805127002824</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.0006777304173843022</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.8353100133876646</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.533929836366951</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.1177142335745292</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.4362439976307614</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.08922888106010381</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.7978381071905564</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.9330194358001984</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.4831878423882261</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.2785180632804027</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.04971174053130176</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.8159401468403056</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.7193229661375601</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>0.3364215660309652</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.2939431742621076</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4090175142185878</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1734925177534893</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.06341171683301046</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2524685167398594</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.02537660067732886</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2349217468172133</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.1832951080500817</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.2797492986673652</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.06047416542237805</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.04896670497366588</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.2223684974487027</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.3581066681146829</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0.2809147814600915</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>3.02065512503728</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.135823842670926</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.6335282052672688</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.873435825252822</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.468505013679764</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.7555607941517282</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.146067043172394</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.4474705441348527</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.709245904017086</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.925754901324296</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.01112163893844</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.9558037524266308</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.3809647380268449</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1.426295282528261</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>1.344046590257747</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>2.167778423304301</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2538879070209905</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3790901163948193</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.1290873451370074</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.019252279324371</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.005057268210113825</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.08119753102572842</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.07646641645930029</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>1.220913008080613</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>1.211763769317559</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.6244749168935347</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.1227422641224888</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.2276480227856464</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.6097846739342138</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>1.121824396168335</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.06745599075364957</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.6511513157039159</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.120604519736967</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3545590733889266</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.1449065419913556</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3780722772162998</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.308688016146939</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.282496933294283</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.4206223468202404</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.09251281576131025</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.009030072899995472</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.4843927687957646</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.1015500348085693</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.1199831675494099</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0.1678770331745516</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>6.82834426433422</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.3512843684375687</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.333714057625962</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.063386066597745</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.629571008939704</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6417647514972051</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.7800499206377409</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.7406969467028479</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>2.550835548140552</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>4.772947064428066</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.64698231384657</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.3287162277867806</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.7224197682589999</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>1.228975484585277</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>3.113465435540203</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,20 +1009,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>7.152125321093312</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1229841092311974</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1422432804127586</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.454842274556105</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>2.835240135452443</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.1494215468072789</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.06301723574665898</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.03267198279172875</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>3.618975212639124</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.1400237746410313</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.01745818866798456</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.443682420191623</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -853,19 +1057,41 @@
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="n">
+        <v>-0.824018188857642</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.6127864945284046</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.362645722002275</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>0.293620549860148</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.6397853033826287</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.5858567299900809</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5786485759925606</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>0.8958579750973121</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.542788911106877</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.4697701563049194</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.3016285972966621</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -876,19 +1102,41 @@
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>2.341303121331785</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.411731977599128</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.550687488640207</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>10.26918796909938</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.022739527145836</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.200236944168114</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1.648336500992814</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>12.17883878674166</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.7085849985799709</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>1.031077358263407</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>1.906473801197091</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,21 +1150,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>1.797237814725159</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.08548893022724144</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1727973611826031</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.5252215085939211</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.6178853946024178</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2090704947219517</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.2046136864116673</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.06652218101415212</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.856806640307516</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.9931362455236665</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.6812025845144314</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.04863755241064457</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.1151674643663785</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.691657231351528</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.7971585600923509</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1203,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.5921157176400202</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4134057046559325</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1599160667154546</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.08464617939134103</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1311731214958532</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1254352516937469</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1105125914184287</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1733141210087917</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.3892745176136533</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.3852884874158771</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.2823456302608228</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2023804052325189</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.07727477649016762</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.3596567511482875</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>0.3838365912491453</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1256,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>3.440212281893435</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3914676794159621</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.6857591571895715</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.149826439054628</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.402512478835769</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.62725666098116</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.5793462099399362</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3671806088049491</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>1.477581594860462</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>1.879688797244868</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>1.191511014983939</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.3082875947110512</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.3643188357931653</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>1.122451667627698</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>1.379500093362773</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
